--- a/Industrials/Cameco.xlsx
+++ b/Industrials/Cameco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD83A431-2427-CC47-8230-EF0886803296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7C2495-5E15-AC49-BAD6-5E65C7365B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1051,6 +1051,9 @@
     <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1068,9 +1071,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2393,11 +2393,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2414,20 +2416,22 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.8390000000000001E-2</v>
+            <v>3.7190000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2555,9 +2559,9 @@
     <v>Powered by Refinitiv</v>
     <v>43.94</v>
     <v>26.32</v>
-    <v>0.94130000000000003</v>
-    <v>-0.42</v>
-    <v>-9.9880000000000004E-3</v>
+    <v>0.92989999999999995</v>
+    <v>-0.4</v>
+    <v>-1.0160000000000001E-2</v>
     <v>0</v>
     <v>0</v>
     <v>CAD</v>
@@ -2567,25 +2571,25 @@
     <v>XTSE</v>
     <v>XTSE</v>
     <v>2121 11th St W, SASKATOON, SK, S7M 1J3 CA</v>
-    <v>42.54</v>
+    <v>39.65</v>
     <v>Uranium</v>
     <v>Stock</v>
-    <v>45091.833333333336</v>
+    <v>45104.868472222224</v>
     <v>0</v>
-    <v>41.01</v>
-    <v>18027130486</v>
+    <v>38.64</v>
+    <v>17012260000</v>
     <v>CAMECO CORPORATION</v>
     <v>CAMECO CORPORATION</v>
-    <v>42.52</v>
-    <v>105.45</v>
-    <v>42.05</v>
-    <v>41.63</v>
-    <v>41.63</v>
+    <v>39.51</v>
+    <v>98.71</v>
+    <v>39.369999999999997</v>
+    <v>38.97</v>
+    <v>38.97</v>
     <v>433032200</v>
     <v>CCO</v>
     <v>CAMECO CORPORATION (XTSE:CCO)</v>
-    <v>988601</v>
-    <v>1574650</v>
+    <v>838983</v>
+    <v>1079140</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -3171,10 +3175,10 @@
   <dimension ref="A1:AN118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH96" sqref="AH96"/>
+      <selection pane="bottomRight" activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4981,15 +4985,15 @@
       </c>
       <c r="AL16" s="64">
         <f>AM101/AE3</f>
-        <v>9.6504826202099245</v>
+        <v>9.1071909413421714</v>
       </c>
       <c r="AM16" s="64">
         <f>AM101/AE28</f>
-        <v>201.68636286948154</v>
+        <v>190.33205790875121</v>
       </c>
       <c r="AN16" s="65">
         <f>AM101/AE107</f>
-        <v>111.85928484291911</v>
+        <v>105.56196054827841</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -5309,15 +5313,15 @@
       </c>
       <c r="AL19" s="64">
         <f>AM101/AF3</f>
-        <v>7.7303303970840478</v>
+        <v>7.2951372212692966</v>
       </c>
       <c r="AM19" s="64">
         <f>AM101/AF28</f>
-        <v>41.816586606355834</v>
+        <v>39.462444908373925</v>
       </c>
       <c r="AN19" s="65">
         <f>AM101/AF105</f>
-        <v>-256.39327574922044</v>
+        <v>-241.95914445090753</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -11620,10 +11624,10 @@
       <c r="AE83" s="1">
         <v>-226358000</v>
       </c>
-      <c r="AL83" s="68" t="s">
+      <c r="AL83" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="AM83" s="69"/>
+      <c r="AM83" s="70"/>
     </row>
     <row r="84" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -11719,10 +11723,10 @@
       <c r="AE84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AL84" s="70" t="s">
+      <c r="AL84" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="AM84" s="71"/>
+      <c r="AM84" s="72"/>
     </row>
     <row r="85" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -12664,10 +12668,10 @@
       <c r="AE93" s="1">
         <v>-1220000</v>
       </c>
-      <c r="AL93" s="70" t="s">
+      <c r="AL93" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="AM93" s="71"/>
+      <c r="AM93" s="72"/>
     </row>
     <row r="94" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -12768,7 +12772,7 @@
       </c>
       <c r="AM94" s="35">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8390000000000001E-2</v>
+        <v>3.7190000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -12870,7 +12874,7 @@
       </c>
       <c r="AM95" s="37" cm="1">
         <f t="array" ref="AM95">_FV(A1,"Beta")</f>
-        <v>0.94130000000000003</v>
+        <v>0.92989999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13073,7 +13077,7 @@
       </c>
       <c r="AM97" s="34">
         <f>(AM94)+((AM95)*(AM96-AM94))</f>
-        <v>8.1322693000000001E-2</v>
+        <v>8.0718619000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -13170,10 +13174,10 @@
       <c r="AE98" s="1">
         <v>-51895000</v>
       </c>
-      <c r="AL98" s="70" t="s">
+      <c r="AL98" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="AM98" s="71"/>
+      <c r="AM98" s="72"/>
     </row>
     <row r="99" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -13376,7 +13380,7 @@
       </c>
       <c r="AM100" s="32">
         <f>AM99/AM103</f>
-        <v>5.2407125820215526E-2</v>
+        <v>5.5360409034019169E-2</v>
       </c>
     </row>
     <row r="101" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13478,7 +13482,7 @@
       </c>
       <c r="AM101" s="38" cm="1">
         <f t="array" ref="AM101">_FV(A1,"Market cap",TRUE)</f>
-        <v>18027130486</v>
+        <v>17012260000</v>
       </c>
     </row>
     <row r="102" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13580,7 +13584,7 @@
       </c>
       <c r="AM102" s="32">
         <f>AM101/AM103</f>
-        <v>0.94759287417978444</v>
+        <v>0.94463959096598082</v>
       </c>
     </row>
     <row r="103" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13682,7 +13686,7 @@
       </c>
       <c r="AM103" s="39">
         <f>AM99+AM101</f>
-        <v>19024130486</v>
+        <v>18009260000</v>
       </c>
     </row>
     <row r="104" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -13779,10 +13783,10 @@
       <c r="AE104" s="11">
         <v>1143674000</v>
       </c>
-      <c r="AL104" s="70" t="s">
+      <c r="AL104" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="AM104" s="71"/>
+      <c r="AM104" s="72"/>
     </row>
     <row r="105" spans="1:39" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -13932,7 +13936,7 @@
       </c>
       <c r="AM105" s="26">
         <f>(AM100*AM92)+(AM102*AM97)</f>
-        <v>8.0881034169655017E-2</v>
+        <v>8.0285513284341664E-2</v>
       </c>
     </row>
     <row r="106" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -13941,119 +13945,119 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:AE106" si="22">(C107/B107)-1</f>
         <v>0.15257048092868986</v>
       </c>
       <c r="D106" s="15">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="22"/>
         <v>-1.6043165467625899</v>
       </c>
       <c r="E106" s="15">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="22"/>
         <v>-1.1809289047619047</v>
       </c>
       <c r="F106" s="15">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="22"/>
         <v>-16.791522426462169</v>
       </c>
       <c r="G106" s="15">
-        <f>(G107/F107)-1</f>
+        <f t="shared" si="22"/>
         <v>2.9300051666666667</v>
       </c>
       <c r="H106" s="15">
-        <f>(H107/G107)-1</f>
+        <f t="shared" si="22"/>
         <v>-1.0801514616329384</v>
       </c>
       <c r="I106" s="15">
-        <f>(I107/H107)-1</f>
+        <f t="shared" si="22"/>
         <v>2.4214263641041192</v>
       </c>
       <c r="J106" s="15">
-        <f>(J107/I107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.55174499772802721</v>
       </c>
       <c r="K106" s="15">
-        <f>(K107/J107)-1</f>
+        <f t="shared" si="22"/>
         <v>1.7705686728018257</v>
       </c>
       <c r="L106" s="15">
-        <f>(L107/K107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.4625446408114392</v>
       </c>
       <c r="M106" s="15">
-        <f>(M107/L107)-1</f>
+        <f t="shared" si="22"/>
         <v>-7.593716044187504E-2</v>
       </c>
       <c r="N106" s="15">
-        <f>(N107/M107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.55232951968534716</v>
       </c>
       <c r="O106" s="15">
-        <f>(O107/N107)-1</f>
+        <f t="shared" si="22"/>
         <v>-2.1632301750161282</v>
       </c>
       <c r="P106" s="15">
-        <f>(P107/O107)-1</f>
+        <f t="shared" si="22"/>
         <v>-8.3726743190902226</v>
       </c>
       <c r="Q106" s="15">
-        <f>(Q107/P107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.74166420097536723</v>
       </c>
       <c r="R106" s="15">
-        <f>(R107/Q107)-1</f>
+        <f t="shared" si="22"/>
         <v>2.7589579139390077</v>
       </c>
       <c r="S106" s="15">
-        <f>(S107/R107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.87618781818059543</v>
       </c>
       <c r="T106" s="15">
-        <f>(T107/S107)-1</f>
+        <f t="shared" si="22"/>
         <v>1.2939898427527767</v>
       </c>
       <c r="U106" s="15">
-        <f>(U107/T107)-1</f>
+        <f t="shared" si="22"/>
         <v>-2.0623793907679921</v>
       </c>
       <c r="V106" s="15">
-        <f>(V107/U107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.29008424712489966</v>
       </c>
       <c r="W106" s="15">
-        <f>(W107/V107)-1</f>
+        <f t="shared" si="22"/>
         <v>-1.0006392149749066</v>
       </c>
       <c r="X106" s="15">
-        <f>(X107/W107)-1</f>
+        <f t="shared" si="22"/>
         <v>1234.7837837837837</v>
       </c>
       <c r="Y106" s="15">
-        <f>(Y107/X107)-1</f>
+        <f t="shared" si="22"/>
         <v>4.4003149330767322E-2</v>
       </c>
       <c r="Z106" s="15">
-        <f>(Z107/Y107)-1</f>
+        <f t="shared" si="22"/>
         <v>4.0488310708898947</v>
       </c>
       <c r="AA106" s="15">
-        <f>(AA107/Z107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.26997108015816695</v>
       </c>
       <c r="AB106" s="15">
-        <f>(AB107/AA107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.26192918775340845</v>
       </c>
       <c r="AC106" s="15">
-        <f>(AC107/AB107)-1</f>
+        <f t="shared" si="22"/>
         <v>-1.0455343250415547</v>
       </c>
       <c r="AD106" s="15">
-        <f>(AD107/AC107)-1</f>
+        <f t="shared" si="22"/>
         <v>-18.474554027122927</v>
       </c>
       <c r="AE106" s="15">
-        <f>(AE107/AD107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.55171847879300362</v>
       </c>
       <c r="AF106" s="62">
@@ -14083,7 +14087,7 @@
       </c>
     </row>
     <row r="107" spans="1:39" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="72" t="s">
+      <c r="A107" s="66" t="s">
         <v>164</v>
       </c>
       <c r="B107" s="1">
@@ -14182,7 +14186,7 @@
       <c r="AI107" s="41"/>
       <c r="AJ107" s="63">
         <f>AJ106*(1+AM107)/(AM108-AM107)</f>
-        <v>18019709458.899162</v>
+        <v>18213812989.689613</v>
       </c>
       <c r="AK107" s="44" t="s">
         <v>145</v>
@@ -14196,24 +14200,24 @@
     </row>
     <row r="108" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="AF108" s="63">
-        <f t="shared" ref="AF108:AI108" si="22">AF107+AF106</f>
+        <f t="shared" ref="AF108:AI108" si="23">AF107+AF106</f>
         <v>345600000</v>
       </c>
       <c r="AG108" s="63">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>823900000</v>
       </c>
       <c r="AH108" s="63">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1087000000</v>
       </c>
       <c r="AI108" s="63">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1077000000</v>
       </c>
       <c r="AJ108" s="63">
         <f>AJ107+AJ106</f>
-        <v>19002109458.899162</v>
+        <v>19196212989.689613</v>
       </c>
       <c r="AK108" s="44" t="s">
         <v>142</v>
@@ -14223,14 +14227,14 @@
       </c>
       <c r="AM108" s="48">
         <f>AM105</f>
-        <v>8.0881034169655017E-2</v>
+        <v>8.0285513284341664E-2</v>
       </c>
     </row>
     <row r="109" spans="1:39" ht="19" x14ac:dyDescent="0.25">
-      <c r="AF109" s="66" t="s">
+      <c r="AF109" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="AG109" s="67"/>
+      <c r="AG109" s="68"/>
     </row>
     <row r="110" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="AF110" s="49" t="s">
@@ -14238,7 +14242,7 @@
       </c>
       <c r="AG110" s="38">
         <f>NPV(AM108,AF108,AG108,AH108,AI108,AJ108)</f>
-        <v>15554681444.32152</v>
+        <v>15726270408.375521</v>
       </c>
     </row>
     <row r="111" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -14265,7 +14269,7 @@
       </c>
       <c r="AG113" s="38">
         <f>AG110+AG111-AG112</f>
-        <v>16600529444.321518</v>
+        <v>16772118408.375519</v>
       </c>
     </row>
     <row r="114" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -14283,7 +14287,7 @@
       </c>
       <c r="AG115" s="52">
         <f>AG113/AG114</f>
-        <v>39.642505881798286</v>
+        <v>40.052264892170641</v>
       </c>
     </row>
     <row r="116" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -14292,7 +14296,7 @@
       </c>
       <c r="AG116" s="53" cm="1">
         <f t="array" ref="AG116">_FV(A1,"Price")</f>
-        <v>41.63</v>
+        <v>38.97</v>
       </c>
     </row>
     <row r="117" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -14301,7 +14305,7 @@
       </c>
       <c r="AG117" s="55">
         <f>AG115/AG116-1</f>
-        <v>-4.7741871683923076E-2</v>
+        <v>2.7771744731091674E-2</v>
       </c>
     </row>
     <row r="118" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -14310,7 +14314,7 @@
       </c>
       <c r="AG118" s="56" t="str">
         <f>IF(AG115&gt;AG116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>
